--- a/tiempo.xlsx
+++ b/tiempo.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D478398-73E4-46A5-89F6-97173B42D513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F9476B-FC2C-450F-9B1D-8AC4B1E1F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="124">
   <si>
     <t>Año</t>
   </si>
@@ -89,6 +89,309 @@
   </si>
   <si>
     <t>Junio</t>
+  </si>
+  <si>
+    <t>id_tiempo</t>
+  </si>
+  <si>
+    <t>EST0001</t>
+  </si>
+  <si>
+    <t>EST0002</t>
+  </si>
+  <si>
+    <t>EST0003</t>
+  </si>
+  <si>
+    <t>EST0004</t>
+  </si>
+  <si>
+    <t>EST0005</t>
+  </si>
+  <si>
+    <t>EST0006</t>
+  </si>
+  <si>
+    <t>EST0007</t>
+  </si>
+  <si>
+    <t>EST0008</t>
+  </si>
+  <si>
+    <t>EST0009</t>
+  </si>
+  <si>
+    <t>EST0010</t>
+  </si>
+  <si>
+    <t>EST0011</t>
+  </si>
+  <si>
+    <t>EST0012</t>
+  </si>
+  <si>
+    <t>EST0013</t>
+  </si>
+  <si>
+    <t>EST0014</t>
+  </si>
+  <si>
+    <t>EST0015</t>
+  </si>
+  <si>
+    <t>EST0016</t>
+  </si>
+  <si>
+    <t>EST0017</t>
+  </si>
+  <si>
+    <t>EST0018</t>
+  </si>
+  <si>
+    <t>EST0019</t>
+  </si>
+  <si>
+    <t>EST0020</t>
+  </si>
+  <si>
+    <t>EST0021</t>
+  </si>
+  <si>
+    <t>EST0022</t>
+  </si>
+  <si>
+    <t>EST0023</t>
+  </si>
+  <si>
+    <t>EST0024</t>
+  </si>
+  <si>
+    <t>EST0025</t>
+  </si>
+  <si>
+    <t>EST0026</t>
+  </si>
+  <si>
+    <t>EST0027</t>
+  </si>
+  <si>
+    <t>EST0028</t>
+  </si>
+  <si>
+    <t>EST0029</t>
+  </si>
+  <si>
+    <t>EST0030</t>
+  </si>
+  <si>
+    <t>EST0031</t>
+  </si>
+  <si>
+    <t>EST0032</t>
+  </si>
+  <si>
+    <t>EST0033</t>
+  </si>
+  <si>
+    <t>EST0034</t>
+  </si>
+  <si>
+    <t>EST0035</t>
+  </si>
+  <si>
+    <t>EST0036</t>
+  </si>
+  <si>
+    <t>EST0037</t>
+  </si>
+  <si>
+    <t>EST0038</t>
+  </si>
+  <si>
+    <t>EST0039</t>
+  </si>
+  <si>
+    <t>EST0040</t>
+  </si>
+  <si>
+    <t>EST0041</t>
+  </si>
+  <si>
+    <t>EST0042</t>
+  </si>
+  <si>
+    <t>EST0043</t>
+  </si>
+  <si>
+    <t>EST0044</t>
+  </si>
+  <si>
+    <t>EST0045</t>
+  </si>
+  <si>
+    <t>EST0046</t>
+  </si>
+  <si>
+    <t>EST0047</t>
+  </si>
+  <si>
+    <t>EST0048</t>
+  </si>
+  <si>
+    <t>EST0049</t>
+  </si>
+  <si>
+    <t>EST0050</t>
+  </si>
+  <si>
+    <t>EST0051</t>
+  </si>
+  <si>
+    <t>EST0052</t>
+  </si>
+  <si>
+    <t>EST0053</t>
+  </si>
+  <si>
+    <t>EST0054</t>
+  </si>
+  <si>
+    <t>EST0055</t>
+  </si>
+  <si>
+    <t>EST0056</t>
+  </si>
+  <si>
+    <t>EST0057</t>
+  </si>
+  <si>
+    <t>EST0058</t>
+  </si>
+  <si>
+    <t>EST0059</t>
+  </si>
+  <si>
+    <t>EST0060</t>
+  </si>
+  <si>
+    <t>EST0061</t>
+  </si>
+  <si>
+    <t>EST0062</t>
+  </si>
+  <si>
+    <t>EST0063</t>
+  </si>
+  <si>
+    <t>EST0064</t>
+  </si>
+  <si>
+    <t>EST0065</t>
+  </si>
+  <si>
+    <t>EST0066</t>
+  </si>
+  <si>
+    <t>EST0067</t>
+  </si>
+  <si>
+    <t>EST0068</t>
+  </si>
+  <si>
+    <t>EST0069</t>
+  </si>
+  <si>
+    <t>EST0070</t>
+  </si>
+  <si>
+    <t>EST0071</t>
+  </si>
+  <si>
+    <t>EST0072</t>
+  </si>
+  <si>
+    <t>EST0073</t>
+  </si>
+  <si>
+    <t>EST0074</t>
+  </si>
+  <si>
+    <t>EST0075</t>
+  </si>
+  <si>
+    <t>EST0076</t>
+  </si>
+  <si>
+    <t>EST0077</t>
+  </si>
+  <si>
+    <t>EST0078</t>
+  </si>
+  <si>
+    <t>EST0079</t>
+  </si>
+  <si>
+    <t>EST0080</t>
+  </si>
+  <si>
+    <t>EST0081</t>
+  </si>
+  <si>
+    <t>EST0082</t>
+  </si>
+  <si>
+    <t>EST0083</t>
+  </si>
+  <si>
+    <t>EST0084</t>
+  </si>
+  <si>
+    <t>EST0085</t>
+  </si>
+  <si>
+    <t>EST0086</t>
+  </si>
+  <si>
+    <t>EST0087</t>
+  </si>
+  <si>
+    <t>EST0088</t>
+  </si>
+  <si>
+    <t>EST0089</t>
+  </si>
+  <si>
+    <t>EST0090</t>
+  </si>
+  <si>
+    <t>EST0091</t>
+  </si>
+  <si>
+    <t>EST0092</t>
+  </si>
+  <si>
+    <t>EST0093</t>
+  </si>
+  <si>
+    <t>EST0094</t>
+  </si>
+  <si>
+    <t>EST0095</t>
+  </si>
+  <si>
+    <t>EST0096</t>
+  </si>
+  <si>
+    <t>EST0097</t>
+  </si>
+  <si>
+    <t>EST0098</t>
+  </si>
+  <si>
+    <t>EST0099</t>
+  </si>
+  <si>
+    <t>EST0100</t>
   </si>
 </sst>
 </file>
@@ -456,1124 +759,1430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
         <v>2023</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
         <v>2005</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
         <v>2000</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>2015</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
         <v>2022</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
         <v>2023</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
         <v>2022</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
         <v>2010</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>2000</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
         <v>2020</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
         <v>2020</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
         <v>2023</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
         <v>2015</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
         <v>2015</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
         <v>2000</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
         <v>2021</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
         <v>2000</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
         <v>2023</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
         <v>2010</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
         <v>2005</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
         <v>2005</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
         <v>2005</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
         <v>2015</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
         <v>2005</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
         <v>2015</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
         <v>2000</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
         <v>2005</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
         <v>2021</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
         <v>2015</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
         <v>2021</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
         <v>2020</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
         <v>2010</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
         <v>2020</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
         <v>2021</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
         <v>2000</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
         <v>2005</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
         <v>2015</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
         <v>2020</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
         <v>2021</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
         <v>2015</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
         <v>2020</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
         <v>2023</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
         <v>2020</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
         <v>2000</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
         <v>2020</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
         <v>2005</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
         <v>2020</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49">
         <v>2005</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
         <v>2010</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
         <v>2020</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52">
         <v>2015</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53">
         <v>2021</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54">
         <v>2020</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
         <v>2023</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56">
         <v>2000</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
         <v>2022</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
         <v>2000</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
         <v>2021</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60">
         <v>2020</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
         <v>2023</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62">
         <v>2022</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
         <v>2000</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64">
         <v>2005</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65">
         <v>2010</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66">
         <v>2000</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
         <v>2010</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
         <v>2010</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69">
         <v>2020</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70">
         <v>2000</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71">
         <v>2015</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
         <v>2015</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73">
         <v>2005</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>4</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74">
         <v>2022</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75">
         <v>2010</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>8</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76">
         <v>2010</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77">
         <v>2022</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>7</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
         <v>2010</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
         <v>2021</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80">
         <v>2015</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
         <v>2010</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82">
         <v>2005</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83">
         <v>2000</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84">
         <v>2015</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
         <v>2023</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>3</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
         <v>2020</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87">
         <v>2015</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88">
         <v>2015</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89">
         <v>2021</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90">
         <v>2005</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>4</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91">
         <v>2021</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92">
         <v>2022</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93">
         <v>2021</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>10</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94">
         <v>2005</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>4</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95">
         <v>2010</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>8</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96">
         <v>2020</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97">
         <v>2005</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>4</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98">
         <v>2022</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99">
         <v>2021</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100">
         <v>2005</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>4</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101">
         <v>2015</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>6</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>18</v>
       </c>
     </row>

--- a/tiempo.xlsx
+++ b/tiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F9476B-FC2C-450F-9B1D-8AC4B1E1F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E81FB2-1DBA-49C9-AF7D-EE722419DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="124">
   <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Ciclo escolar</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
     <t>2023/2024</t>
   </si>
   <si>
@@ -392,6 +383,15 @@
   </si>
   <si>
     <t>EST0100</t>
+  </si>
+  <si>
+    <t>ciclo_escolar</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>anio</t>
   </si>
 </sst>
 </file>
@@ -761,1429 +761,1429 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2005</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>2015</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2010</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2015</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2015</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2021</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2000</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>2010</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>2005</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>2005</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>2015</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>2015</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>2000</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>2005</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>2021</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>2015</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>2021</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>2010</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>2020</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>2000</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>2005</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>2015</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>2020</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>2021</v>
       </c>
       <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
         <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>2015</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>2020</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>2020</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45">
         <v>2000</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>2020</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47">
         <v>2005</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>2020</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>2005</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50">
         <v>2010</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>2020</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>2015</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53">
         <v>2021</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>2020</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>2023</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56">
         <v>2000</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57">
         <v>2022</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>2000</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59">
         <v>2021</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60">
         <v>2020</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>2023</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>2022</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>2000</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>2005</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65">
         <v>2010</v>
       </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>2000</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67">
         <v>2010</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68">
         <v>2010</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69">
         <v>2020</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70">
         <v>2000</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71">
         <v>2015</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72">
         <v>2015</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B73">
         <v>2005</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>2022</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B75">
         <v>2010</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B76">
         <v>2010</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B77">
         <v>2022</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B78">
         <v>2010</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B79">
         <v>2021</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>2015</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>2010</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B82">
         <v>2005</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B83">
         <v>2000</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B84">
         <v>2015</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B85">
         <v>2023</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86">
         <v>2020</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87">
         <v>2015</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88">
         <v>2015</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89">
         <v>2021</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B90">
         <v>2005</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91">
         <v>2021</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B92">
         <v>2022</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93">
         <v>2021</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94">
         <v>2005</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B95">
         <v>2010</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B96">
         <v>2020</v>
       </c>
       <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
         <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B97">
         <v>2005</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B98">
         <v>2022</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B99">
         <v>2021</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B100">
         <v>2005</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B101">
         <v>2015</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
